--- a/uw-passport-frontend/public/static/template/roles.xlsx
+++ b/uw-passport-frontend/public/static/template/roles.xlsx
@@ -40,6 +40,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -61,6 +62,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -134,10 +136,10 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.87"/>
